--- a/produtos/proddois/tabelas_proddois.xlsx
+++ b/produtos/proddois/tabelas_proddois.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TalitaGuerra\Documents\GitHub\latex_PMGIRS\produtos\proddois\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9BB6D7-794B-4A90-AB42-DF206D146B6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A493BA3-93DE-42AB-87B3-F7AC87F448E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{A39F354E-E737-416F-BC0B-4B18EED0D76B}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
   <si>
     <t>CÂMARA MUNICIPAL – PODER LEGISLATIVO</t>
   </si>
@@ -600,12 +600,15 @@
   <si>
     <t>Tabela 2. Gabinete da Prefeitura de Monteiro Lobato.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Posição </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +715,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -789,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,6 +948,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,8 +963,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,10 +1406,10 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -1566,7 +1582,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,13 +1603,25 @@
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
+      <c r="F2" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="F3" s="33">
+        <v>1991</v>
+      </c>
+      <c r="G3" s="27">
+        <v>457</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -1605,6 +1633,12 @@
       <c r="C4" s="27">
         <v>2010</v>
       </c>
+      <c r="F4" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>488</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -1616,6 +1650,12 @@
       <c r="C5" s="11">
         <v>534</v>
       </c>
+      <c r="F5" s="33">
+        <v>2010</v>
+      </c>
+      <c r="G5" s="27">
+        <v>534</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1623,6 +1663,7 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="4"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="54"/>
@@ -1715,7 +1756,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -1830,11 +1871,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1892,7 +1933,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -1903,7 +1944,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="37" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1953,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="37" t="s">
         <v>18</v>
       </c>
@@ -1921,7 +1962,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="37" t="s">
         <v>20</v>
       </c>
@@ -1930,7 +1971,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="37" t="s">
         <v>22</v>
       </c>
